--- a/exemplos/sigbm.xlsx
+++ b/exemplos/sigbm.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233009.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232609.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4235" uniqueCount="4235">
   <si>
-    <t>Informação extraída do SIGBM: 09/05/2023 - 01:30:18</t>
+    <t>Informação extraída do SIGBM: 09/05/2023 - 08:26:28</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -5072,7 +5072,7 @@
     <t>RIACHO DOS MACHADOS</t>
   </si>
   <si>
-    <t>15.694.200,00</t>
+    <t>15.546.212,80</t>
   </si>
   <si>
     <t>Barragem MSG</t>
@@ -7166,10 +7166,10 @@
     <t>03.405.415/0001-33</t>
   </si>
   <si>
-    <t>-20°07'05.850"</t>
-  </si>
-  <si>
-    <t>-44°19'11.450"</t>
+    <t>-20°07'05.400"</t>
+  </si>
+  <si>
+    <t>-44°19'09.807"</t>
   </si>
   <si>
     <t>DIQUE 01 - PILHA SUL</t>
@@ -7241,10 +7241,10 @@
     <t>Dique 02</t>
   </si>
   <si>
-    <t>-20°07'15.440"</t>
-  </si>
-  <si>
-    <t>-44°19'22.200"</t>
+    <t>-20°07'19.470"</t>
+  </si>
+  <si>
+    <t>-44°19'22.460"</t>
   </si>
   <si>
     <t>Dique 02 - Pitangui</t>
